--- a/biology/Botanique/Jean-Pierre_Cuny/Jean-Pierre_Cuny.xlsx
+++ b/biology/Botanique/Jean-Pierre_Cuny/Jean-Pierre_Cuny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Cuny est un réalisateur, écrivain français et ancien collaborateur de Pierre Bellemare, né en 1930 à Lunéville et mort en 2000.
 </t>
@@ -511,12 +523,14 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Français, né à Lunéville en Lorraine il grandit en Auvergne [1]. À la fin de la guerre, il a vécu au Maroc pendant une dizaine d'années où il entame une carrière de journaliste. Issu d'une fratrie de quatre enfants (un frère Bernard, et deux sœurs Anne-Marie et Marie-Thérèse), il est le fils de André Stein, modiste, et de Jean Alfred Fortunat Cuny, successivement vigneron en Lorraine [2], comptable [3], directeur d'un cabinet d'assurances [4], puis buraliste à Casablanca [5].
-Il est le frère de l’écrivaine Marie-Thérèse Cuny [6] et le beau-frère du producteur de télévision Jacques Solness à qui l'on doit avec Jacques Antoine, Le Schmilblic. Il a été le gendre du Lieutenant-Colonel Jean Bourgoin, chef de projet et ingénieur en chef du déplacement des temples d'Abou Simbel en Égypte.
-Il est un des descendants de Jacques Cuny, Lieutenant Général du Comté de Ligny qui a repris la noblesse de sa mère le 18 juillet 1629 avec les armes de la famille “de Fleury” [7],[8] , et il est également le petit-fils de l’architecte Charles Cuny (Maison Cuny-Mangin).
-Il a eu trois fils, dont le producteur Julien Cuny[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Français, né à Lunéville en Lorraine il grandit en Auvergne . À la fin de la guerre, il a vécu au Maroc pendant une dizaine d'années où il entame une carrière de journaliste. Issu d'une fratrie de quatre enfants (un frère Bernard, et deux sœurs Anne-Marie et Marie-Thérèse), il est le fils de André Stein, modiste, et de Jean Alfred Fortunat Cuny, successivement vigneron en Lorraine , comptable , directeur d'un cabinet d'assurances , puis buraliste à Casablanca .
+Il est le frère de l’écrivaine Marie-Thérèse Cuny  et le beau-frère du producteur de télévision Jacques Solness à qui l'on doit avec Jacques Antoine, Le Schmilblic. Il a été le gendre du Lieutenant-Colonel Jean Bourgoin, chef de projet et ingénieur en chef du déplacement des temples d'Abou Simbel en Égypte.
+Il est un des descendants de Jacques Cuny, Lieutenant Général du Comté de Ligny qui a repris la noblesse de sa mère le 18 juillet 1629 avec les armes de la famille “de Fleury” , , et il est également le petit-fils de l’architecte Charles Cuny (Maison Cuny-Mangin).
+Il a eu trois fils, dont le producteur Julien Cuny,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien élève au lycée Lyautey de Casablanca, où il s'est distingué par son don pour la poésie, il a ensuite intégré des études préparatoires en hypokhâgne et khâgne, puis suivi une licence de lettres, ce qui lui a permis d'être journaliste de presse écrite au Maroc pendant douze ans, notamment à La Vigie marocaine[11].
-Il avait pour ami l'écrivain Jean Giono qui l'a encouragé dans cette voie[1],[12],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève au lycée Lyautey de Casablanca, où il s'est distingué par son don pour la poésie, il a ensuite intégré des études préparatoires en hypokhâgne et khâgne, puis suivi une licence de lettres, ce qui lui a permis d'être journaliste de presse écrite au Maroc pendant douze ans, notamment à La Vigie marocaine.
+Il avait pour ami l'écrivain Jean Giono qui l'a encouragé dans cette voie.
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Émissions présentées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses premières expériences de télévision à Télé Monte Carlo[14] où il anime une émission régionale de 24 minutes, puis Télé-Union. Dans le milieu des années 1975 l’agence Interpress, à Paris, réalise des portraits de Jean-Pierre Cuny pour annoncer qu’il remplacera Pierre Bellemare dans l'émission La Tête et les Jambes[15], mais finalement l’émission sera présentée par Philippe Gildas[16].
-Par la suite Jean-Pierre Cuny devient le présentateur de La Course autour du monde[17], La Vie des plantes, Vous êtes formidables, Le point d'interrogation[18] et Le Francophonissime[19]. Les vidéos sont maintenant disponibles sur Youtube[20].
-Dès 1963, alors journaliste, il désire réaliser un documentaire sur les plantes, mais il faudra attendre 1978 et sa rencontre avec le botaniste Jean-Marie Pelt afin de commencer le projet. La série L'Aventure des plantes sortira officiellement sur les chaînes de télévision en 1982[21]. C'est une adaptation très large, écrite et réalisée par Jean-Pierre Cuny, d'un livre intitulé "Evolution et Sexualité des Plantes" dont l'auteur est Jean-Marie Pelt. De ce fait, celui-ci est présenté comme co-auteur de la série, même si il n'y a pas participé. Jean-Pierre Cuny a écrit et en récite le commentaire "avec autant d'humour que de talent" (Citel, 1989). La série recevra un 7 d'or en 1987 et a été diffusée dans 43 pays[22]. TELERAMA écrit alors : "Une série splendide qui fera date dans l'histoire de la télévision".
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses premières expériences de télévision à Télé Monte Carlo où il anime une émission régionale de 24 minutes, puis Télé-Union. Dans le milieu des années 1975 l’agence Interpress, à Paris, réalise des portraits de Jean-Pierre Cuny pour annoncer qu’il remplacera Pierre Bellemare dans l'émission La Tête et les Jambes, mais finalement l’émission sera présentée par Philippe Gildas.
+Par la suite Jean-Pierre Cuny devient le présentateur de La Course autour du monde, La Vie des plantes, Vous êtes formidables, Le point d'interrogation et Le Francophonissime. Les vidéos sont maintenant disponibles sur Youtube.
+Dès 1963, alors journaliste, il désire réaliser un documentaire sur les plantes, mais il faudra attendre 1978 et sa rencontre avec le botaniste Jean-Marie Pelt afin de commencer le projet. La série L'Aventure des plantes sortira officiellement sur les chaînes de télévision en 1982. C'est une adaptation très large, écrite et réalisée par Jean-Pierre Cuny, d'un livre intitulé "Evolution et Sexualité des Plantes" dont l'auteur est Jean-Marie Pelt. De ce fait, celui-ci est présenté comme co-auteur de la série, même si il n'y a pas participé. Jean-Pierre Cuny a écrit et en récite le commentaire "avec autant d'humour que de talent" (Citel, 1989). La série recevra un 7 d'or en 1987 et a été diffusée dans 43 pays. TELERAMA écrit alors : "Une série splendide qui fera date dans l'histoire de la télévision".
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publications en langues française et italienne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Prodigieuse aventure des plantes  (ISBN 2213009880)
 L'Aventure des plantes
@@ -645,10 +665,12 @@
           <t>Réalisations documentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aventure des plantes I (d'après un livre de Jean-Marie Pelt [23] en 1982)
-L'Aventure des plantes II (réalisateur et auteur principal, 1987), qui a reçu un 7 d'or. Disponible en téléchargement et dvd sur le site de l'Institut national de l'audiovisuel [24]. Un mini-film extrait de cette série est sortie en salle de cinéma pour la première fois en 2019[25].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aventure des plantes I (d'après un livre de Jean-Marie Pelt  en 1982)
+L'Aventure des plantes II (réalisateur et auteur principal, 1987), qui a reçu un 7 d'or. Disponible en téléchargement et dvd sur le site de l'Institut national de l'audiovisuel . Un mini-film extrait de cette série est sortie en salle de cinéma pour la première fois en 2019.
 La Vie des plantes
 Les Inventions de la vie (deux séries : 1989 et 1993)
 Plantes aux frontières de l’impossible (1991)
@@ -687,13 +709,15 @@
           <t>Prix et Héritage intellectuel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7 d’or en 1987 pour L’Aventure des plantes II [26]
-Prix de l'Association des critiques et informateurs de télévision pour L’Aventure des plantes [27]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 d’or en 1987 pour L’Aventure des plantes II 
+Prix de l'Association des critiques et informateurs de télévision pour L’Aventure des plantes 
 Sociétaire de la Société des Gens de Lettres
 Sociétaire de la Société civile des auteurs multimédia
-En hommage  à Jean-Pierre Cuny et Jean-Marie Pelt, l'Institut européen d'écologie lance en 2018 un festival du film sur la transition écologique : MAPLANET(e), International Film Festival. Le festival est soutenu par la ville de Metz, Metz Métropole, le Ministère de la Transition Écologique et Solidaire, et plusieurs partenaires privés[28].
+En hommage  à Jean-Pierre Cuny et Jean-Marie Pelt, l'Institut européen d'écologie lance en 2018 un festival du film sur la transition écologique : MAPLANET(e), International Film Festival. Le festival est soutenu par la ville de Metz, Metz Métropole, le Ministère de la Transition Écologique et Solidaire, et plusieurs partenaires privés.
 Les archives écrites de Jean-Pierre Cuny ont été conservées, et notamment toute sa correspondance avec Rechung Rinpoché alors en exil au Sikkim afin de préparer une expédition botanique pour une nouvelle série sur les plantes ; des chercheurs et directeurs de laboratoire du CNRS, INRA, l'université d' Oxford ; ou encore le Ministère de la culture. Lors de son décès il préparait deux nouvelles séries.
 </t>
         </is>
@@ -723,7 +747,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>« Tout corps plongé dans un liquide finit par avouer. »
 «On peut parler d’adaptation, de hasard ou de création divine. Mon rôle consiste à sensibiliser le plus de gens possibles, à divulguer les découvertes de la science. Je le fais avec des mots simples, un peu de poésie et d’humour si possible, et en faisant parfois appel à des comparaisons audacieuses…».</t>
